--- a/questions/2018/10b/10b.xlsx
+++ b/questions/2018/10b/10b.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="116">
   <si>
     <t>A</t>
   </si>
@@ -350,6 +353,121 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -420,6 +538,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="frequency analysis"/>
+      <sheetName val="substitutions"/>
+      <sheetName val="transposer 1"/>
+      <sheetName val="transposer 2"/>
+      <sheetName val="transposer 3"/>
+      <sheetName val="vigenere decrypter"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -719,631 +860,1292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AA11"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="27" width="3.875" style="1" customWidth="1"/>
     <col min="28" max="28" width="2.875" style="1" customWidth="1"/>
     <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="S5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="X5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="T6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="V6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="X7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="AA7" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>45</v>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>36</v>
+      <c r="P12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>66</v>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>35</v>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
